--- a/사우나청결표.xlsx
+++ b/사우나청결표.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52a66d801fd720f3/바탕 화면/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52a66d801fd720f3/바탕 화면/데스크 공동작업폴더/kws/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{E208E261-98ED-43C8-BF5F-5E0A8CDEF6FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1560CA11-456C-4A08-AB13-528E9A5E3572}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{E208E261-98ED-43C8-BF5F-5E0A8CDEF6FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8F0D658-2521-4160-8235-519FAEE1728E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{91F43DAE-D677-4354-8781-1F3B492D1C62}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="44">
   <si>
     <t>사우나 점검표</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -198,6 +198,69 @@
   </si>
   <si>
     <t>일(      )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">양호 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>○
+미흡</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="견고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>△
+불량</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="견고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Ⅹ</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -270,13 +333,6 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="견고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
       <sz val="18"/>
       <color theme="1"/>
       <name val="견고딕"/>
@@ -294,6 +350,14 @@
       <sz val="36"/>
       <color theme="1"/>
       <name val="견고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -780,123 +844,120 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -907,80 +968,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -994,14 +986,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1317,456 +1369,359 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{317A8A63-8A7B-4872-84FC-8CA05A9F1E7E}">
-  <dimension ref="A1:V26"/>
+  <dimension ref="A1:V24"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="6" customWidth="1"/>
-    <col min="2" max="10" width="12.5" style="6" customWidth="1"/>
+    <col min="1" max="1" width="16.25" style="4" customWidth="1"/>
+    <col min="2" max="10" width="12.5" style="4" customWidth="1"/>
     <col min="12" max="12" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="36.75" thickTop="1" thickBot="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
     </row>
     <row r="2" spans="1:22" ht="32.25" thickTop="1">
-      <c r="A2" s="46"/>
-      <c r="B2" s="61" t="s">
+      <c r="A2" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="64" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:22" ht="36.75" customHeight="1">
-      <c r="A3" s="47"/>
-      <c r="B3" s="38" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14" t="s">
+      <c r="C3" s="56"/>
+      <c r="D3" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="48" t="s">
+      <c r="E3" s="56"/>
+      <c r="F3" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="45" t="s">
+      <c r="G3" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="15" t="s">
+      <c r="H3" s="54"/>
+      <c r="I3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="J3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
     </row>
     <row r="4" spans="1:22" ht="36.75" customHeight="1" thickBot="1">
-      <c r="A4" s="55"/>
-      <c r="B4" s="56" t="s">
+      <c r="A4" s="37"/>
+      <c r="B4" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="57" t="s">
+      <c r="E4" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="58" t="s">
+      <c r="F4" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="59" t="s">
+      <c r="G4" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="57" t="s">
+      <c r="H4" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="57" t="s">
+      <c r="I4" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="60" t="s">
+      <c r="J4" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
     </row>
     <row r="5" spans="1:22" ht="42.6" customHeight="1" thickTop="1">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
     </row>
     <row r="6" spans="1:22" ht="42.6" customHeight="1">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
     </row>
     <row r="7" spans="1:22" ht="42.6" customHeight="1">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="25"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="11"/>
     </row>
     <row r="8" spans="1:22" ht="42.6" customHeight="1">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="25"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="11"/>
     </row>
     <row r="9" spans="1:22" ht="42.6" customHeight="1">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="25"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="11"/>
     </row>
     <row r="10" spans="1:22" ht="42.6" customHeight="1">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="25"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="11"/>
     </row>
     <row r="11" spans="1:22" ht="42.6" customHeight="1" thickBot="1">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="35"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="17"/>
     </row>
     <row r="12" spans="1:22" ht="56.85" customHeight="1" thickTop="1">
-      <c r="A12" s="71" t="s">
+      <c r="A12" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="73"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="67"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="43"/>
     </row>
     <row r="13" spans="1:22" ht="56.85" customHeight="1" thickBot="1">
-      <c r="A13" s="68"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="70"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="46"/>
     </row>
     <row r="14" spans="1:22" ht="17.25" thickTop="1">
-      <c r="A14" s="72"/>
-      <c r="B14" s="72"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="72"/>
+      <c r="A14" s="35"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
     </row>
     <row r="15" spans="1:22">
-      <c r="A15" s="72"/>
-      <c r="B15" s="72"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="72"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
     </row>
     <row r="16" spans="1:22">
-      <c r="A16" s="72"/>
-      <c r="B16" s="72"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="6"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="4"/>
     </row>
     <row r="17" spans="1:11" ht="16.350000000000001" customHeight="1">
-      <c r="A17" s="30"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="6"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="4"/>
     </row>
     <row r="18" spans="1:11" ht="16.350000000000001" customHeight="1">
-      <c r="A18" s="31"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="28"/>
+      <c r="A18" s="13"/>
     </row>
     <row r="19" spans="1:11" ht="16.350000000000001" customHeight="1">
-      <c r="A19" s="31"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="28"/>
+      <c r="A19" s="13"/>
     </row>
     <row r="20" spans="1:11" ht="16.350000000000001" customHeight="1">
-      <c r="A20" s="31"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="28"/>
+      <c r="A20" s="13"/>
     </row>
     <row r="21" spans="1:11" ht="16.350000000000001" customHeight="1">
-      <c r="A21" s="31"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="28"/>
+      <c r="A21" s="13"/>
     </row>
     <row r="22" spans="1:11" ht="16.350000000000001" customHeight="1">
-      <c r="A22" s="31"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="28"/>
+      <c r="A22" s="13"/>
     </row>
     <row r="23" spans="1:11" ht="16.350000000000001" customHeight="1">
-      <c r="A23" s="31"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="28"/>
+      <c r="A23" s="13"/>
     </row>
     <row r="24" spans="1:11" ht="16.350000000000001" customHeight="1">
-      <c r="A24" s="31"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="28"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="30"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="28"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="28"/>
+      <c r="A24" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1800,478 +1755,473 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="35.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
     </row>
     <row r="2" spans="1:22" ht="31.5">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
     </row>
     <row r="3" spans="1:22" ht="22.5">
-      <c r="A3" s="18"/>
-      <c r="B3" s="14" t="s">
+      <c r="A3" s="59"/>
+      <c r="B3" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14" t="s">
+      <c r="C3" s="56"/>
+      <c r="D3" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14" t="s">
+      <c r="E3" s="56"/>
+      <c r="F3" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="15" t="s">
+      <c r="G3" s="56"/>
+      <c r="H3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
     </row>
     <row r="4" spans="1:22" ht="22.5">
-      <c r="A4" s="19"/>
-      <c r="B4" s="15" t="s">
+      <c r="A4" s="60"/>
+      <c r="B4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
     </row>
     <row r="5" spans="1:22" ht="46.5">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
     </row>
     <row r="6" spans="1:22" ht="46.5">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
     </row>
     <row r="7" spans="1:22" ht="46.5">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:22" ht="46.5">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:22" ht="46.5">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:22" ht="46.5">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:22" ht="46.5">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
+      <c r="A13" s="58"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
     </row>
     <row r="14" spans="1:22" ht="35.25">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
     </row>
     <row r="15" spans="1:22" ht="31.5">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
     </row>
     <row r="16" spans="1:22" ht="22.5">
-      <c r="A16" s="17"/>
-      <c r="B16" s="21" t="s">
+      <c r="A16" s="58"/>
+      <c r="B16" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="15" t="s">
+      <c r="C16" s="62"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="15" t="s">
+      <c r="I16" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J16" s="5"/>
-      <c r="K16" s="6"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="4"/>
     </row>
     <row r="17" spans="1:11" ht="22.5">
-      <c r="A17" s="17"/>
-      <c r="B17" s="15" t="s">
+      <c r="A17" s="58"/>
+      <c r="B17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="H17" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I17" s="15" t="s">
+      <c r="I17" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="6"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="4"/>
     </row>
     <row r="18" spans="1:11" ht="46.5">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:11" ht="46.5">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:11" ht="46.5">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:11" ht="46.5">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:11" ht="46.5">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:11" ht="46.5">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
     </row>
     <row r="24" spans="1:11" ht="46.5">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
+      <c r="A26" s="58"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="A25:I26"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:D16"/>
     <mergeCell ref="K3:P3"/>
     <mergeCell ref="J1:V1"/>
     <mergeCell ref="K2:V2"/>
@@ -2282,6 +2232,11 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A12:I13"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="A25:I26"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:D16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2299,137 +2254,137 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="6"/>
+    <col min="1" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="35.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
     </row>
     <row r="2" spans="1:10" ht="31.5">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
     </row>
     <row r="3" spans="1:10" ht="22.5">
-      <c r="A3" s="8"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="7" t="s">
+      <c r="A3" s="68"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="22.5">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="22.5">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="22.5">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="22.5">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="22.5">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="22.5">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="22.5">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="22.5">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="22.5">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="22.5">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7" t="s">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="22.5">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>4</v>
       </c>
     </row>
